--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_8.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E5739-122D-464E-85DB-C6819958BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440A6D8-28FF-3C4D-9834-7DE8ADB43D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="41440" windowHeight="26800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="901">
   <si>
     <t>record_id</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Barnichon_2016_gaussian</t>
   </si>
   <si>
-    <t>Transformation logdiff effect size, extract IRF</t>
-  </si>
-  <si>
     <t>Y9FVNB52</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>dr</t>
   </si>
   <si>
-    <t>Transformation gr effect size, extract IRF</t>
-  </si>
-  <si>
     <t>G55FNGMJ</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>https://doi.org/10.1016/j.jimonfin.2015.06.003</t>
   </si>
   <si>
-    <t>extract IRF, Christian</t>
-  </si>
-  <si>
     <t>WXJLNNCS</t>
   </si>
   <si>
@@ -550,9 +541,6 @@
     <t>many difficult decissions and models not coded for various reasons</t>
   </si>
   <si>
-    <t xml:space="preserve">extract IRF </t>
-  </si>
-  <si>
     <t>NIEZ2SDU</t>
   </si>
   <si>
@@ -745,9 +733,6 @@
     <t>https://doi.org/10.1093/oxrep/grn009</t>
   </si>
   <si>
-    <t>Are these already the cumulated IRFs? Effects will be huuuge otherwise</t>
-  </si>
-  <si>
     <t>IYT6ADCI</t>
   </si>
   <si>
@@ -1480,12 +1465,6 @@
     <t>https://dx.doi.org/10.2139/ssrn.2971775</t>
   </si>
   <si>
-    <t>Additional responses in bars</t>
-  </si>
-  <si>
-    <t>transformation of cumulative and non-cumulative gr</t>
-  </si>
-  <si>
     <t>ID4SAHUW</t>
   </si>
   <si>
@@ -1561,9 +1540,6 @@
     <t>https://doi.org/10.1515/bejm-2015-0074</t>
   </si>
   <si>
-    <t>ONLY TVP-VAR responses</t>
-  </si>
-  <si>
     <t>AGE7I9N5</t>
   </si>
   <si>
@@ -2000,9 +1976,6 @@
   </si>
   <si>
     <t>https://mpra.ub.uni-muenchen.de/99490/</t>
-  </si>
-  <si>
-    <t>transformation of gr</t>
   </si>
   <si>
     <t>NHGK5UZE</t>
@@ -2630,9 +2603,6 @@
     <t>https://doi.org/10.1016/j.jmacro.2017.10.006</t>
   </si>
   <si>
-    <t>transformation of logdiff, extract IRF Titus</t>
-  </si>
-  <si>
     <t>TG5W562Q</t>
   </si>
   <si>
@@ -2705,9 +2675,6 @@
     <t>https://doi.org/10.1016/j.jmoneco.2008.05.001</t>
   </si>
   <si>
-    <t>extract IRF, Titus</t>
-  </si>
-  <si>
     <t>UDIBGRL2</t>
   </si>
   <si>
@@ -2763,6 +2730,9 @@
   </si>
   <si>
     <t>recoding_done</t>
+  </si>
+  <si>
+    <t>Scale</t>
   </si>
 </sst>
 </file>
@@ -2791,7 +2761,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2802,12 +2772,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFD59"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2839,7 +2803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -2852,8 +2816,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3054,11 +3016,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AF58" sqref="AF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="32" max="32" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3160,8 +3125,8 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
-        <v>910</v>
+      <c r="AH1" s="9" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.2">
@@ -3308,9 +3273,7 @@
       <c r="AC3" s="1">
         <v>1</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AF3" s="1"/>
       <c r="AG3" s="1">
         <v>1</v>
       </c>
@@ -3323,34 +3286,34 @@
         <v>3712</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="1">
         <v>2014</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -3368,13 +3331,13 @@
         <v>45153</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -3391,19 +3354,19 @@
         <v>10563</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E5" s="1">
         <v>2006</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1">
         <v>26</v>
@@ -3412,46 +3375,46 @@
         <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="S5" s="6">
         <v>45153</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>45</v>
@@ -3462,64 +3425,64 @@
         <v>2901</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E6" s="1">
         <v>2010</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="S6" s="4">
         <v>45153</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
@@ -3527,9 +3490,7 @@
       <c r="Y6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AF6" s="1"/>
       <c r="AG6" s="1">
         <v>1</v>
       </c>
@@ -3542,49 +3503,49 @@
         <v>3870</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>2014</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="S7" s="6">
         <v>45153</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -3596,11 +3557,9 @@
         <v>45</v>
       </c>
       <c r="Z7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AF7" s="1"/>
       <c r="AG7" s="1">
         <v>1</v>
       </c>
@@ -3613,58 +3572,58 @@
         <v>7633</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E8" s="1">
         <v>2018</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="S8" s="4">
         <v>45153</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>45</v>
@@ -3675,58 +3634,58 @@
         <v>2655</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E9" s="1">
         <v>2015</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="S9" s="6">
         <v>45153</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -3737,9 +3696,7 @@
       <c r="Y9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="AF9" s="1"/>
       <c r="AG9" s="1">
         <v>1</v>
       </c>
@@ -3752,43 +3709,43 @@
         <v>7562</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="S10" s="4">
         <v>45153</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -3797,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>45</v>
@@ -3808,37 +3765,37 @@
         <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1">
         <v>2016</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -3856,7 +3813,7 @@
         <v>45153</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -3879,70 +3836,70 @@
         <v>6657</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1">
         <v>2016</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="S12" s="4">
         <v>45153</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>45</v>
@@ -3953,61 +3910,61 @@
         <v>10458</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1">
         <v>2022</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="S13" s="6">
         <v>45153</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -4016,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>45</v>
@@ -4027,32 +3984,32 @@
         <v>9219</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1">
         <v>1999</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
@@ -4066,13 +4023,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S14" s="4">
         <v>45153</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -4081,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>45</v>
@@ -4092,58 +4049,58 @@
         <v>10624</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1">
         <v>2020</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="S15" s="6">
         <v>45153</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -4152,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>45</v>
@@ -4163,55 +4120,55 @@
         <v>9977</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E16" s="1">
         <v>1999</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="S16" s="4">
         <v>45153</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -4225,12 +4182,10 @@
       <c r="AD16">
         <v>1</v>
       </c>
-      <c r="AE16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AE16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF16" s="1"/>
       <c r="AG16" s="1">
         <v>1</v>
       </c>
@@ -4243,37 +4198,37 @@
         <v>662</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1">
         <v>2021</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -4288,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S17" s="6">
         <v>45153</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -4303,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>45</v>
@@ -4314,61 +4269,61 @@
         <v>7517</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E18" s="1">
         <v>2018</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="S18" s="4">
         <v>45153</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -4377,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>45</v>
@@ -4388,37 +4343,37 @@
         <v>2524</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E19" s="1">
         <v>2017</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -4433,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="S19" s="6">
         <v>45166</v>
@@ -4448,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>45</v>
@@ -4459,52 +4414,52 @@
         <v>7040</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E20" s="1">
         <v>2019</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="S20" s="6">
         <v>45155</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -4513,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>45</v>
@@ -4524,61 +4479,61 @@
         <v>9376</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E21" s="1">
         <v>2016</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="S21" s="6">
         <v>45155</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U21" s="1">
         <v>0</v>
@@ -4587,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>45</v>
@@ -4598,28 +4553,28 @@
         <v>4851</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E22" s="1">
         <v>2002</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -4637,7 +4592,7 @@
         <v>45155</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -4660,37 +4615,37 @@
         <v>5664</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E23" s="1">
         <v>2008</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -4705,13 +4660,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S23" s="6">
         <v>45155</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -4725,12 +4680,10 @@
       <c r="AD23">
         <v>1</v>
       </c>
-      <c r="AE23" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AE23" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="AF23" s="1"/>
       <c r="AG23">
         <v>1</v>
       </c>
@@ -4743,28 +4696,28 @@
         <v>7637</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E24" s="1">
         <v>2013</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -4782,7 +4735,7 @@
         <v>45155</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U24" s="1">
         <v>0</v>
@@ -4805,19 +4758,19 @@
         <v>8700</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E25" s="1">
         <v>2017</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
@@ -4829,13 +4782,13 @@
         <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -4850,25 +4803,25 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S25" s="6">
         <v>45155</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>45</v>
@@ -4879,37 +4832,37 @@
         <v>8491</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E26" s="1">
         <v>2013</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -4924,25 +4877,25 @@
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S26" s="6">
         <v>45155</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U26" s="1">
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>45</v>
@@ -4953,25 +4906,25 @@
         <v>7861</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E27" s="1">
         <v>2017</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -4986,25 +4939,25 @@
         <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S27" s="6">
         <v>45155</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W27" s="1">
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>45</v>
@@ -5015,28 +4968,28 @@
         <v>1138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E28" s="1">
         <v>2003</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -5051,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="S28" s="6">
         <v>45155</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
@@ -5066,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>45</v>
@@ -5077,37 +5030,37 @@
         <v>5905</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E29" s="1">
         <v>1987</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -5122,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S29" s="6">
         <v>45155</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -5137,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>45</v>
@@ -5148,37 +5101,37 @@
         <v>140</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E30" s="1">
         <v>2003</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
@@ -5193,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="S30" s="6">
         <v>45155</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5208,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>45</v>
@@ -5219,34 +5172,34 @@
         <v>3426</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E31" s="1">
         <v>2019</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -5261,19 +5214,19 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S31" s="6">
         <v>45155</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -5281,9 +5234,7 @@
       <c r="Y31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF31" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AF31" s="1"/>
       <c r="AG31" s="1">
         <v>1</v>
       </c>
@@ -5296,13 +5247,13 @@
         <v>4503</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E32" s="1">
         <v>2006</v>
@@ -5311,13 +5262,13 @@
         <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
@@ -5335,13 +5286,13 @@
         <v>45155</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
@@ -5358,37 +5309,37 @@
         <v>890</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E33" s="1">
         <v>2002</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -5403,25 +5354,25 @@
         <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="S33" s="6">
         <v>45155</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>45</v>
@@ -5432,37 +5383,37 @@
         <v>2656</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E34" s="1">
         <v>2016</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -5477,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S34" s="6">
         <v>45155</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
@@ -5494,9 +5445,7 @@
       <c r="Y34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF34" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AF34" s="1"/>
       <c r="AG34" s="1">
         <v>1</v>
       </c>
@@ -5509,40 +5458,40 @@
         <v>10339</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E35" s="1">
         <v>2020</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -5557,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S35" s="6">
         <v>45155</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -5572,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>45</v>
@@ -5583,34 +5532,34 @@
         <v>10702</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E36" s="1">
         <v>2012</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -5625,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="S36" s="6">
         <v>45155</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
@@ -5640,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>45</v>
@@ -5651,28 +5600,28 @@
         <v>8147</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E37" s="1">
         <v>2017</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
@@ -5687,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="S37" s="6">
         <v>45155</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -5702,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>45</v>
@@ -5713,37 +5662,37 @@
         <v>7378</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E38" s="1">
         <v>2013</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
@@ -5758,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="S38" s="6">
         <v>45155</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
@@ -5773,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>45</v>
@@ -5784,40 +5733,40 @@
         <v>7926</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E39" s="1">
         <v>2008</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
@@ -5832,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S39" s="6">
         <v>45155</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U39" s="1">
         <v>0</v>
@@ -5847,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>45</v>
@@ -5858,37 +5807,37 @@
         <v>1255</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E40" s="1">
         <v>2020</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G40" s="1">
         <v>4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N40" s="1">
         <v>1</v>
@@ -5903,25 +5852,25 @@
         <v>0</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S40" s="6">
         <v>45155</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U40" s="1">
         <v>0</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>45</v>
@@ -5932,19 +5881,19 @@
         <v>5388</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E41" s="1">
         <v>2009</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G41" s="1">
         <v>4</v>
@@ -5956,13 +5905,13 @@
         <v>37</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
@@ -5977,25 +5926,25 @@
         <v>0</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S41" s="6">
         <v>45155</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>45</v>
@@ -6006,31 +5955,31 @@
         <v>2003</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E42" s="1">
         <v>2022</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
@@ -6045,19 +5994,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S42" s="6">
         <v>45155</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W42" s="1">
         <v>0</v>
@@ -6074,19 +6023,19 @@
         <v>7022</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E43" s="1">
         <v>2017</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G43" s="1">
         <v>2</v>
@@ -6098,13 +6047,13 @@
         <v>37</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -6119,25 +6068,25 @@
         <v>0</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="S43" s="6">
         <v>45155</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W43" s="1">
         <v>0</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>45</v>
@@ -6148,28 +6097,28 @@
         <v>9333</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E44" s="1">
         <v>2006</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -6184,25 +6133,25 @@
         <v>0</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S44" s="6">
         <v>45155</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U44" s="1">
         <v>0</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W44" s="1">
         <v>0</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>45</v>
@@ -6213,13 +6162,13 @@
         <v>1094</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E45" s="1">
         <v>2011</v>
@@ -6228,13 +6177,13 @@
         <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -6252,13 +6201,13 @@
         <v>45155</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U45" s="1">
         <v>0</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="W45" s="1">
         <v>0</v>
@@ -6275,40 +6224,40 @@
         <v>8124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E46" s="1">
         <v>2020</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -6326,13 +6275,13 @@
         <v>45155</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U46" s="1">
         <v>0</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
@@ -6349,40 +6298,40 @@
         <v>9304</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E47" s="1">
         <v>2019</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="N47" s="1">
         <v>1</v>
@@ -6397,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="S47" s="6">
         <v>45155</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U47" s="1">
         <v>0</v>
@@ -6412,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>45</v>
@@ -6423,34 +6372,34 @@
         <v>3147</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E48" s="1">
         <v>2017</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N48" s="1">
         <v>1</v>
@@ -6465,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="S48" s="6">
         <v>45166</v>
@@ -6480,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>45</v>
@@ -6491,19 +6440,19 @@
         <v>10491</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E49" s="1">
         <v>2011</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -6515,16 +6464,16 @@
         <v>37</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
@@ -6539,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="S49" s="6">
         <v>45155</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U49" s="1">
         <v>0</v>
@@ -6557,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>45</v>
@@ -6568,19 +6517,19 @@
         <v>9766</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E50" s="1">
         <v>2008</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H50" s="1">
         <v>28</v>
@@ -6589,13 +6538,13 @@
         <v>37</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N50" s="1">
         <v>1</v>
@@ -6610,13 +6559,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="S50" s="6">
         <v>45155</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U50" s="1">
         <v>0</v>
@@ -6625,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>45</v>
@@ -6636,60 +6585,60 @@
         <v>9673</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E51" s="1">
         <v>2017</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="S51" s="6">
         <v>45159</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U51" s="1">
         <v>0</v>
       </c>
-      <c r="W51" s="8">
+      <c r="W51">
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
@@ -6697,12 +6646,6 @@
       </c>
       <c r="AD51">
         <v>1</v>
-      </c>
-      <c r="AE51" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>485</v>
       </c>
       <c r="AG51">
         <v>1</v>
@@ -6716,28 +6659,28 @@
         <v>1047</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E52" s="1">
         <v>2014</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
@@ -6752,13 +6695,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="S52" s="6">
         <v>45159</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U52" s="1">
         <v>0</v>
@@ -6767,45 +6710,45 @@
         <v>0</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>10038</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E53" s="1">
         <v>2022</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="N53" s="1">
         <v>1</v>
@@ -6820,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="S53" s="6">
         <v>45159</v>
@@ -6837,9 +6780,7 @@
       <c r="Y53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF53" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AF53" s="1"/>
       <c r="AG53" s="1">
         <v>1</v>
       </c>
@@ -6847,42 +6788,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>692</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E54" s="1">
         <v>2016</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -6897,22 +6838,22 @@
         <v>0</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="S54" s="6">
         <v>45159</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U54" s="1">
         <v>0</v>
       </c>
-      <c r="W54" s="9">
-        <v>1</v>
-      </c>
-      <c r="X54" s="10" t="s">
-        <v>511</v>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" s="8" t="s">
+        <v>723</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>45</v>
@@ -6923,28 +6864,28 @@
         <v>1079</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E55" s="1">
         <v>2012</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="N55" s="1">
         <v>1</v>
@@ -6959,13 +6900,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="S55" s="6">
         <v>45159</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U55" s="1">
         <v>0</v>
@@ -6974,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>45</v>
@@ -6985,37 +6926,37 @@
         <v>1493</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E56" s="1">
         <v>2021</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="N56" s="1">
         <v>1</v>
@@ -7030,25 +6971,25 @@
         <v>0</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="S56" s="6">
         <v>45159</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U56" s="1">
         <v>0</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>45</v>
@@ -7059,22 +7000,22 @@
         <v>9851</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="N57" s="1">
         <v>0</v>
@@ -7092,13 +7033,13 @@
         <v>45159</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U57" s="1">
         <v>0</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
@@ -7115,31 +7056,31 @@
         <v>7014</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E58" s="1">
         <v>2015</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="N58" s="1">
         <v>1</v>
@@ -7154,13 +7095,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="S58" s="6">
         <v>45159</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U58" s="1">
         <v>0</v>
@@ -7169,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>45</v>
@@ -7180,13 +7121,13 @@
         <v>4598</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E59" s="1">
         <v>2010</v>
@@ -7195,13 +7136,13 @@
         <v>37</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
@@ -7219,13 +7160,13 @@
         <v>45159</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U59" s="1">
         <v>0</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="W59" s="1">
         <v>0</v>
@@ -7242,31 +7183,31 @@
         <v>7660</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E60" s="1">
         <v>2020</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="N60" s="1">
         <v>1</v>
@@ -7281,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="S60" s="6">
         <v>45159</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U60" s="1">
         <v>0</v>
@@ -7296,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>45</v>
@@ -7307,28 +7248,28 @@
         <v>2621</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E61" s="1">
         <v>2019</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -7346,7 +7287,7 @@
         <v>45159</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U61" s="1">
         <v>0</v>
@@ -7366,40 +7307,40 @@
         <v>1916</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E62" s="1">
         <v>2013</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G62" s="1">
         <v>5</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="N62" s="1">
         <v>1</v>
@@ -7414,25 +7355,25 @@
         <v>0</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="S62" s="6">
         <v>45159</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U62" s="1">
         <v>0</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>45</v>
@@ -7443,37 +7384,37 @@
         <v>632</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E63" s="1">
         <v>2017</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="N63" s="1">
         <v>1</v>
@@ -7488,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="S63" s="6">
         <v>45159</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U63" s="1">
         <v>0</v>
@@ -7503,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>45</v>
@@ -7514,40 +7455,40 @@
         <v>7081</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E64" s="1">
         <v>2010</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="N64" s="1">
         <v>1</v>
@@ -7562,13 +7503,13 @@
         <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="S64" s="6">
         <v>45159</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U64" s="1">
         <v>0</v>
@@ -7577,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="Y64" s="1" t="s">
         <v>45</v>
@@ -7588,40 +7529,40 @@
         <v>10389</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E65" s="1">
         <v>2017</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="N65" s="1">
         <v>1</v>
@@ -7636,19 +7577,19 @@
         <v>0</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="S65" s="6">
         <v>45159</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U65" s="1">
         <v>0</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W65">
         <v>1</v>
@@ -7656,9 +7597,7 @@
       <c r="Y65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF65" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AF65" s="1"/>
       <c r="AG65" s="1">
         <v>1</v>
       </c>
@@ -7671,28 +7610,28 @@
         <v>854</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E66" s="1">
         <v>2016</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="N66" s="1">
         <v>1</v>
@@ -7707,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="S66" s="6">
         <v>45159</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U66" s="1">
         <v>0</v>
@@ -7722,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="Y66" s="1" t="s">
         <v>45</v>
@@ -7733,40 +7672,40 @@
         <v>2197</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E67" s="1">
         <v>2004</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="N67" s="1">
         <v>1</v>
@@ -7781,19 +7720,19 @@
         <v>0</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="S67" s="6">
         <v>45159</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U67" s="1">
         <v>0</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="W67">
         <v>1</v>
@@ -7801,9 +7740,7 @@
       <c r="Y67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF67" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AF67" s="1"/>
       <c r="AG67" s="1">
         <v>1</v>
       </c>
@@ -7816,37 +7753,37 @@
         <v>2052</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E68" s="1">
         <v>2017</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G68" s="1">
         <v>3</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
@@ -7861,25 +7798,25 @@
         <v>0</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="S68" s="6">
         <v>45159</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U68" s="1">
         <v>0</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W68" s="1">
         <v>0</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y68" s="1" t="s">
         <v>45</v>
@@ -7890,37 +7827,37 @@
         <v>1012</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E69" s="1">
         <v>2000</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="N69" s="1">
         <v>1</v>
@@ -7935,25 +7872,25 @@
         <v>0</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S69" s="6">
         <v>45159</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U69" s="1">
         <v>0</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W69" s="1">
         <v>0</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y69" s="1" t="s">
         <v>45</v>
@@ -7964,40 +7901,40 @@
         <v>1596</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E70" s="1">
         <v>2020</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="N70" s="1">
         <v>1</v>
@@ -8012,25 +7949,25 @@
         <v>0</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="S70" s="6">
         <v>45159</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U70" s="1">
         <v>0</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W70" s="1">
         <v>0</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y70" s="1" t="s">
         <v>45</v>
@@ -8041,13 +7978,13 @@
         <v>1173</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E71" s="1">
         <v>2005</v>
@@ -8056,13 +7993,13 @@
         <v>37</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -8077,19 +8014,19 @@
         <v>1</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="S71" s="6">
         <v>45159</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U71" s="1">
         <v>0</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -8106,34 +8043,34 @@
         <v>593</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E72" s="1">
         <v>2020</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="N72" s="1">
         <v>0</v>
@@ -8148,13 +8085,13 @@
         <v>0</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="S72" s="6">
         <v>45159</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U72" s="1">
         <v>0</v>
@@ -8164,9 +8101,6 @@
       </c>
       <c r="Y72" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>658</v>
       </c>
       <c r="AG72">
         <v>1</v>
@@ -8180,19 +8114,19 @@
         <v>7878</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="E73" s="1">
         <v>2023</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G73" s="1">
         <v>5</v>
@@ -8204,16 +8138,16 @@
         <v>37</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="N73" s="1">
         <v>1</v>
@@ -8228,25 +8162,25 @@
         <v>0</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="S73" s="6">
         <v>45159</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U73" s="1">
         <v>0</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W73" s="1">
         <v>0</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="Y73" s="1" t="s">
         <v>45</v>
@@ -8257,19 +8191,19 @@
         <v>8653</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E74" s="1">
         <v>2022</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G74" s="1">
         <v>4</v>
@@ -8281,16 +8215,16 @@
         <v>37</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="N74" s="1">
         <v>1</v>
@@ -8305,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="S74" s="6">
         <v>45159</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U74" s="1">
         <v>0</v>
@@ -8320,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="Y74" s="1" t="s">
         <v>45</v>
@@ -8331,13 +8265,13 @@
         <v>9855</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E75" s="1">
         <v>2001</v>
@@ -8346,16 +8280,16 @@
         <v>37</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="N75" s="1">
         <v>0</v>
@@ -8373,13 +8307,13 @@
         <v>45159</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U75" s="1">
         <v>0</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="W75" s="1">
         <v>0</v>
@@ -8396,37 +8330,37 @@
         <v>8552</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E76" s="1">
         <v>2020</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="N76" s="1">
         <v>1</v>
@@ -8441,25 +8375,25 @@
         <v>0</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="S76" s="6">
         <v>45159</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W76" s="1">
         <v>0</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Y76" s="1" t="s">
         <v>45</v>
@@ -8470,37 +8404,37 @@
         <v>7291</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E77" s="1">
         <v>2021</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N77" s="1">
         <v>1</v>
@@ -8515,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="S77" s="6">
         <v>45159</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U77" s="1">
         <v>0</v>
@@ -8530,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="Y77" s="1" t="s">
         <v>45</v>
@@ -8541,37 +8475,37 @@
         <v>561</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E78" s="1">
         <v>2021</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="N78" s="1">
         <v>1</v>
@@ -8586,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="S78" s="6">
         <v>45161</v>
@@ -8601,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="Y78" s="1" t="s">
         <v>45</v>
@@ -8612,37 +8546,37 @@
         <v>2084</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E79" s="1">
         <v>2008</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="N79" s="1">
         <v>1</v>
@@ -8657,13 +8591,13 @@
         <v>0</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="S79" s="6">
         <v>45159</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U79" s="1">
         <v>0</v>
@@ -8672,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Y79" s="1" t="s">
         <v>45</v>
@@ -8683,40 +8617,40 @@
         <v>9210</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E80" s="1">
         <v>2005</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="N80" s="1">
         <v>1</v>
@@ -8731,25 +8665,25 @@
         <v>0</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="S80" s="6">
         <v>45159</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U80" s="1">
         <v>0</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="Y80" s="1" t="s">
         <v>45</v>
@@ -8760,22 +8694,22 @@
         <v>7087</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="N81" s="1">
         <v>0</v>
@@ -8793,13 +8727,13 @@
         <v>45159</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U81" s="1">
         <v>0</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="W81" s="1">
         <v>0</v>
@@ -8816,40 +8750,40 @@
         <v>8952</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E82" s="1">
         <v>2019</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="N82" s="1">
         <v>1</v>
@@ -8864,13 +8798,13 @@
         <v>0</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="S82" s="6">
         <v>45159</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U82" s="1">
         <v>0</v>
@@ -8879,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="Y82" s="1" t="s">
         <v>45</v>
@@ -8890,34 +8824,34 @@
         <v>7972</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E83" s="1">
         <v>2020</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G83" s="1">
         <v>2</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="N83" s="1">
         <v>1</v>
@@ -8932,25 +8866,25 @@
         <v>0</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="S83" s="6">
         <v>45159</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W83" s="1">
         <v>0</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="Y83" s="1" t="s">
         <v>45</v>
@@ -8961,19 +8895,19 @@
         <v>3102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E84" s="1">
         <v>2001</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="G84" s="1">
         <v>33</v>
@@ -8985,13 +8919,13 @@
         <v>37</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="N84" s="1">
         <v>1</v>
@@ -9006,25 +8940,25 @@
         <v>0</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="S84" s="6">
         <v>45159</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W84" s="1">
         <v>0</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y84" s="1" t="s">
         <v>45</v>
@@ -9035,40 +8969,40 @@
         <v>6901</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E85" s="1">
         <v>2020</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="N85" s="1">
         <v>1</v>
@@ -9083,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="S85" s="6">
         <v>45159</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>
@@ -9098,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y85" s="1" t="s">
         <v>45</v>
@@ -9109,28 +9043,28 @@
         <v>8663</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E86" s="1">
         <v>2014</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="N86" s="1">
         <v>1</v>
@@ -9145,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="S86" s="6">
         <v>45159</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -9160,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="Y86" s="1" t="s">
         <v>45</v>
@@ -9171,37 +9105,37 @@
         <v>612</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E87" s="1">
         <v>2019</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="N87" s="1">
         <v>1</v>
@@ -9216,13 +9150,13 @@
         <v>0</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="S87" s="6">
         <v>45159</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U87" s="1">
         <v>0</v>
@@ -9231,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="Y87" s="1" t="s">
         <v>45</v>
@@ -9242,28 +9176,28 @@
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E88" s="1">
         <v>2023</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="N88" s="1">
         <v>1</v>
@@ -9278,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="S88" s="6">
         <v>45161</v>
@@ -9296,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="Y88" s="1" t="s">
         <v>45</v>
@@ -9307,37 +9241,37 @@
         <v>3524</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E89" s="1">
         <v>2015</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="G89" s="1">
         <v>4</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="N89" s="1">
         <v>1</v>
@@ -9352,19 +9286,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="S89" s="6">
         <v>45159</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U89" s="1">
         <v>0</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W89" s="1">
         <v>1</v>
@@ -9372,9 +9306,7 @@
       <c r="Y89" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF89" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AF89" s="1"/>
       <c r="AG89" s="1">
         <v>1</v>
       </c>
@@ -9387,40 +9319,40 @@
         <v>9437</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E90" s="1">
         <v>2013</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="N90" s="1">
         <v>1</v>
@@ -9435,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="S90" s="6">
         <v>45159</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -9450,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="Y90" s="1" t="s">
         <v>45</v>
@@ -9461,31 +9393,31 @@
         <v>6485</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="E91" s="1">
         <v>2017</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="N91" s="1">
         <v>0</v>
@@ -9500,19 +9432,19 @@
         <v>1</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="S91" s="6">
         <v>45159</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U91" s="1">
         <v>0</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="W91" s="1">
         <v>0</v>
@@ -9529,25 +9461,25 @@
         <v>7599</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E92" s="1">
         <v>2014</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="N92" s="1">
         <v>1</v>
@@ -9562,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="S92" s="6">
         <v>45159</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U92" s="1">
         <v>0</v>
@@ -9577,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="Y92" s="1" t="s">
         <v>45</v>
@@ -9588,40 +9520,40 @@
         <v>10074</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="E93" s="1">
         <v>2008</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="N93" s="1">
         <v>0</v>
@@ -9639,13 +9571,13 @@
         <v>45159</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U93" s="1">
         <v>0</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="W93" s="1">
         <v>0</v>
@@ -9662,37 +9594,37 @@
         <v>1858</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="E94" s="1">
         <v>2018</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="N94" s="1">
         <v>1</v>
@@ -9707,13 +9639,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="S94" s="6">
         <v>45159</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U94" s="1">
         <v>0</v>
@@ -9722,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="Y94" s="1" t="s">
         <v>45</v>
@@ -9733,22 +9665,22 @@
         <v>10232</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="N95" s="1">
         <v>0</v>
@@ -9766,13 +9698,13 @@
         <v>45159</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U95" s="1">
         <v>0</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -9789,37 +9721,37 @@
         <v>650</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="E96" s="1">
         <v>2018</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="N96" s="1">
         <v>1</v>
@@ -9834,28 +9766,25 @@
         <v>0</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="S96" s="6">
         <v>45159</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U96" s="1">
         <v>0</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W96" s="1">
         <v>1</v>
       </c>
       <c r="Y96" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>866</v>
       </c>
       <c r="AG96">
         <v>1</v>
@@ -9869,37 +9798,37 @@
         <v>3853</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E97" s="1">
         <v>2000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G97" s="1">
         <v>2</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="N97" s="1">
         <v>1</v>
@@ -9914,25 +9843,25 @@
         <v>0</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="S97" s="6">
         <v>45159</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U97" s="1">
         <v>0</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y97" s="1" t="s">
         <v>45</v>
@@ -9943,34 +9872,34 @@
         <v>2523</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E98" s="1">
         <v>2016</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="N98" s="1">
         <v>1</v>
@@ -9985,25 +9914,25 @@
         <v>0</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="S98" s="6">
         <v>45159</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U98" s="1">
         <v>0</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W98" s="1">
         <v>0</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y98" s="1" t="s">
         <v>45</v>
@@ -10014,13 +9943,13 @@
         <v>9515</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E99" s="1">
         <v>2008</v>
@@ -10029,25 +9958,25 @@
         <v>49</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="N99" s="1">
         <v>1</v>
@@ -10062,13 +9991,13 @@
         <v>0</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="S99" s="6">
         <v>45159</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U99" s="1">
         <v>0</v>
@@ -10079,9 +10008,7 @@
       <c r="Y99" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF99" s="1" t="s">
-        <v>891</v>
-      </c>
+      <c r="AF99" s="1"/>
       <c r="AG99" s="1">
         <v>1</v>
       </c>
@@ -10094,31 +10021,31 @@
         <v>9730</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="E100" s="1">
         <v>2011</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="N100" s="1">
         <v>1</v>
@@ -10133,13 +10060,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="S100" s="6">
         <v>45159</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U100" s="1">
         <v>0</v>
@@ -10148,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="Y100" s="1" t="s">
         <v>45</v>
@@ -10159,34 +10086,34 @@
         <v>802</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="E101" s="1">
         <v>2009</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="N101" s="1">
         <v>1</v>
@@ -10201,13 +10128,13 @@
         <v>0</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="S101" s="6">
         <v>45159</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U101" s="1">
         <v>0</v>
@@ -10216,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="Y101" s="1" t="s">
         <v>45</v>
